--- a/biology/Botanique/Aport_(variété_de_pomme)/Aport_(variété_de_pomme).xlsx
+++ b/biology/Botanique/Aport_(variété_de_pomme)/Aport_(variété_de_pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aport_(vari%C3%A9t%C3%A9_de_pomme)</t>
+          <t>Aport_(variété_de_pomme)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aport est un cultivar de pommier. 
 Il s'est propagé en Ciscaucasie et Trans-Ili Alataou où les hivers sont froids mais courts et les étés chauds. 
-La peau de l'Aport est épaisse, jaune ou jaune-vert et rouge-brun ; la pulpe est friable et a un goût léger. L'Aport fait partie de ce qu'on appelle les cultivars tardifs, arrivant à maturité en septembre-octobre[1]. De même que pour la majorité des variétés tardives, il se conserve bien en hiver. La majorité des vergers connus se situent à proximité d'Almaty. C'est la variété de pomme la plus populaire d'Almaty[2].
+La peau de l'Aport est épaisse, jaune ou jaune-vert et rouge-brun ; la pulpe est friable et a un goût léger. L'Aport fait partie de ce qu'on appelle les cultivars tardifs, arrivant à maturité en septembre-octobre. De même que pour la majorité des variétés tardives, il se conserve bien en hiver. La majorité des vergers connus se situent à proximité d'Almaty. C'est la variété de pomme la plus populaire d'Almaty.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aport_(vari%C3%A9t%C3%A9_de_pomme)</t>
+          <t>Aport_(variété_de_pomme)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1865, à proximité de Verniy (future Almaty), les premiers plants d'Aport ont été importés par E. Redko, un migrant de la Province de Voronej. La sélection méthodique des variétés, y compris le croisement avec des espèces sauvages de malus sieversii, ont rendu ce cultivar célèbre. En 1914, l'inspecteur principal des vergers S. Perkovski écrit :
-« Du côté des propriétaires locaux, un travail d'acclimatation des arbres fruitiers a été entrepris ; rien que pour la ville de Verniy et ses alentours, des variétés ont été adaptées avec succès, et en particulier, l'Aport et la poire Belle des forêts ; ces deux cultivars sont les principales plantations des vergers de Verniy. Le bourgeois de Voronej Redko a apporté de sa patrie ces Aports. Cette pomme a été plantée d'abord dans son jardin, et le général Kolpakov a ordonné qu'elle soit appelée "pomme de Redko" (mais le nom n'a pas perduré). Elle a contribué à la gloire de Verniy[3], en tant que centre fruitier. »
+« Du côté des propriétaires locaux, un travail d'acclimatation des arbres fruitiers a été entrepris ; rien que pour la ville de Verniy et ses alentours, des variétés ont été adaptées avec succès, et en particulier, l'Aport et la poire Belle des forêts ; ces deux cultivars sont les principales plantations des vergers de Verniy. Le bourgeois de Voronej Redko a apporté de sa patrie ces Aports. Cette pomme a été plantée d'abord dans son jardin, et le général Kolpakov a ordonné qu'elle soit appelée "pomme de Redko" (mais le nom n'a pas perduré). Elle a contribué à la gloire de Verniy, en tant que centre fruitier. »
 Au début du XXe siècle, l'Aport de Verniy s'est répandue dans la partie centrale de la Russie sur les marchés de la capitale, où elle a été qualifiée de «variété de première classe». Les résultats fruitiers de Verniy ont été présentés à l'Exposition universelle de 1900 à Paris où la variété acquit son nom du fait que le stand se situait près de la porte, et en 1908 en Allemagne, à l'exposition de Mannheim, où elle a reçu une appréciation élogieuse de la part des spécialistes.
-L'OIT a monté, en 2005, un projet pour organiser les producteurs d'Aport en coopératives pour être plus efficaces à l'export[4].
+L'OIT a monté, en 2005, un projet pour organiser les producteurs d'Aport en coopératives pour être plus efficaces à l'export.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aport_(vari%C3%A9t%C3%A9_de_pomme)</t>
+          <t>Aport_(variété_de_pomme)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Poids</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme pèse 250 g pour de jeunes pommiers et peut aller jusqu'à 800 g[5],[6], voire un kilogramme[4]. Des aports de 570 g ont été présentées au festival de la pomme « Apple Fest 2010 » à Almaty[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme pèse 250 g pour de jeunes pommiers et peut aller jusqu'à 800 g voire un kilogramme. Des aports de 570 g ont été présentées au festival de la pomme « Apple Fest 2010 » à Almaty.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aport_(vari%C3%A9t%C3%A9_de_pomme)</t>
+          <t>Aport_(variété_de_pomme)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Monnaie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 18 avril 2009, la banque nationale du Kazakhstan a lancé une pièce de monnaie commémorative en argent d'une valeur nominale de 500 tenge, à l'effigie de l'Aport d'Almaty.
 </t>
